--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление день отдыха донору (безвозмездно).xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление день отдыха донору (безвозмездно).xlsx
@@ -63,9 +63,6 @@
     <t>Согласовано:</t>
   </si>
   <si>
-    <t xml:space="preserve">     Прошу предоставить мне день отдыха _______________ 2019, положенный мне согласно ч. 5 ст. 31-1 Закона от 30.11.2010 № 197-З "О донорстве крови и ее компонентов", за сдачу крови на безвозмездной основе __________________ 2019. Справку о предоставлении гарантий и компенсаций донору от _________________2019 № ___________, выданную учреждением здравоохранения _____________________________________________________________________________________________________________________________________________ на 1 л., в 1 экз., прилагаю.</t>
-  </si>
-  <si>
     <t>Заместитель директора</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Начальник структурного подразделения______________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Прошу предоставить мне день отдыха _______________ 2020, положенный мне согласно ч. 5 ст. 31-1 Закона от 30.11.2010 № 197-З "О донорстве крови и ее компонентов", за сдачу крови на безвозмездной основе __________________ . Справку о предоставлении гарантий и компенсаций донору от _________________ № ___________, выданную учреждением здравоохранения _____________________________________________________________________________________________________________________________________________ на 1 л., в 1 экз., прилагаю.</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +733,7 @@
     </row>
     <row r="13" spans="1:13" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -778,7 +778,7 @@
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -789,12 +789,12 @@
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -805,12 +805,12 @@
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -826,7 +826,7 @@
     </row>
     <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -839,7 +839,7 @@
       <c r="D35" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6cK2ZMxAxLMadCoAc/DtFnUeLta6RfYLCASiTjZqp+5YR6axMky/oLD4HOHVLtgLY0ji9HBp5MT/TGn23ZTn7w==" saltValue="+rAx9BzxV4m8hJBxsvGf0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A3:B3"/>
